--- a/experiment/output/results/VLCS/CORAL/SDG/0_2_3.xlsx
+++ b/experiment/output/results/VLCS/CORAL/SDG/0_2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250127_05-05-39_resnet50_adam</t>
+          <t>250216_12-56-06_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74.423</v>
+        <v>72.797</v>
       </c>
       <c r="E2" t="n">
-        <v>53.468</v>
+        <v>66.871</v>
       </c>
       <c r="F2" t="n">
-        <v>52.022</v>
+        <v>51.26</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -520,23 +520,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250131_04-34-02_resnet50_EVE</t>
+          <t>250216_16-32-16_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72.48999999999999</v>
+        <v>64.614</v>
       </c>
       <c r="E3" t="n">
-        <v>70.443</v>
+        <v>64.614</v>
       </c>
       <c r="F3" t="n">
-        <v>64.569</v>
+        <v>58.896</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -552,22 +552,688 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>250217_17-36-53_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250217_12-55-00_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>71.164</v>
+      </c>
+      <c r="E5" t="n">
+        <v>62.182</v>
+      </c>
+      <c r="F5" t="n">
+        <v>54.003</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250216_19-35-55_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>64.096</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55.977</v>
+      </c>
+      <c r="F6" t="n">
+        <v>54.035</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250217_04-23-59_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>66.58199999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>59.764</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45.646</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250217_00-25-28_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>70.86</v>
+      </c>
+      <c r="E8" t="n">
+        <v>67.60599999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50.739</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250216_17-55-53_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>72.94799999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>69.958</v>
+      </c>
+      <c r="F9" t="n">
+        <v>57.359</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250217_09-51-45_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67.15300000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>57.755</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250216_02-30-17_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>61.493</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58.91</v>
+      </c>
+      <c r="F11" t="n">
+        <v>54.697</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>250216_08-50-43_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>63.13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>49.813</v>
+      </c>
+      <c r="F12" t="n">
+        <v>52.704</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>250216_21-54-51_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>72.67400000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>67.706</v>
+      </c>
+      <c r="F13" t="n">
+        <v>49.281</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>250217_08-35-32_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>67.855</v>
+      </c>
+      <c r="E14" t="n">
+        <v>67.855</v>
+      </c>
+      <c r="F14" t="n">
+        <v>67.855</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>250127_05-05-39_resnet50_adam</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>74.423</v>
+      </c>
+      <c r="E15" t="n">
+        <v>53.468</v>
+      </c>
+      <c r="F15" t="n">
+        <v>52.022</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>250217_02-53-21_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>72.629</v>
+      </c>
+      <c r="E16" t="n">
+        <v>69.286</v>
+      </c>
+      <c r="F16" t="n">
+        <v>43.085</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>250216_14-37-29_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>70.652</v>
+      </c>
+      <c r="E17" t="n">
+        <v>57.017</v>
+      </c>
+      <c r="F17" t="n">
+        <v>56.282</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>250131_04-34-02_resnet50_EVE</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>70.443</v>
+      </c>
+      <c r="F18" t="n">
+        <v>64.569</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>250217_11-14-14_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>73.354</v>
+      </c>
+      <c r="E19" t="n">
+        <v>58.881</v>
+      </c>
+      <c r="F19" t="n">
+        <v>47.63</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>250217_07-05-12_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>71.038</v>
+      </c>
+      <c r="E20" t="n">
+        <v>65.35599999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>64.43000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>250216_06-00-16_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>71.762</v>
+      </c>
+      <c r="E21" t="n">
+        <v>52.783</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50.969</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>250217_15-40-11_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>72.26300000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>72.26300000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>49.441</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>250126_23-00-34_resnet50_sgd</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D23" t="n">
         <v>54.823</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E23" t="n">
         <v>52.35</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F23" t="n">
         <v>54.309</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>250216_11-05-38_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>68.041</v>
+      </c>
+      <c r="E24" t="n">
+        <v>52.099</v>
+      </c>
+      <c r="F24" t="n">
+        <v>52.879</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CORAL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>250215_23-40-10_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>74.408</v>
+      </c>
+      <c r="E25" t="n">
+        <v>54.623</v>
+      </c>
+      <c r="F25" t="n">
+        <v>53.768</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/experiment/output/results/VLCS/CORAL/SDG/0_2_3.xlsx
+++ b/experiment/output/results/VLCS/CORAL/SDG/0_2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250216_12-56-06_resnet50_GENIE</t>
+          <t>250217_21-25-24_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72.797</v>
+        <v>69.884</v>
       </c>
       <c r="E2" t="n">
-        <v>66.871</v>
+        <v>54.513</v>
       </c>
       <c r="F2" t="n">
-        <v>51.26</v>
+        <v>54.143</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -520,23 +520,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>250216_16-32-16_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>64.614</v>
-      </c>
-      <c r="E3" t="n">
-        <v>64.614</v>
-      </c>
-      <c r="F3" t="n">
-        <v>58.896</v>
-      </c>
+          <t>250218_09-54-31_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -552,17 +546,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>250217_17-36-53_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>250218_00-25-11_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>71.63200000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57.91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50.682</v>
+      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -578,23 +578,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>250217_12-55-00_resnet50_GENIE</t>
+          <t>250218_08-28-38_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71.164</v>
+        <v>69.545</v>
       </c>
       <c r="E5" t="n">
-        <v>62.182</v>
+        <v>65.569</v>
       </c>
       <c r="F5" t="n">
-        <v>54.003</v>
+        <v>69.545</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -610,23 +610,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>250216_19-35-55_resnet50_GENIE</t>
+          <t>250218_06-54-52_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64.096</v>
+        <v>70.26900000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>55.977</v>
+        <v>67.54900000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>54.035</v>
+        <v>62.733</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -642,23 +642,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>250217_04-23-59_resnet50_GENIE</t>
+          <t>250217_19-40-25_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>66.58199999999999</v>
+        <v>68.76600000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>59.764</v>
+        <v>65.26900000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>45.646</v>
+        <v>51.279</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -674,23 +674,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>250217_00-25-28_resnet50_GENIE</t>
+          <t>250217_18-07-03_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70.86</v>
+        <v>69.66200000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>67.60599999999999</v>
+        <v>64.611</v>
       </c>
       <c r="F8" t="n">
-        <v>50.739</v>
+        <v>62.997</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -706,23 +706,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>250216_17-55-53_resnet50_GENIE</t>
+          <t>250218_03-53-36_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72.94799999999999</v>
+        <v>69.17700000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>69.958</v>
+        <v>69.17700000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>57.359</v>
+        <v>66.92100000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -738,23 +738,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>250217_09-51-45_resnet50_GENIE</t>
+          <t>250127_05-05-39_resnet50_adam</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70.65000000000001</v>
+        <v>74.423</v>
       </c>
       <c r="E10" t="n">
-        <v>67.15300000000001</v>
+        <v>53.468</v>
       </c>
       <c r="F10" t="n">
-        <v>57.755</v>
+        <v>52.022</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -770,23 +770,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>250216_02-30-17_resnet50_GENIE</t>
+          <t>250217_15-40-11_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61.493</v>
+        <v>72.26300000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>58.91</v>
+        <v>72.26300000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>54.697</v>
+        <v>49.441</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -802,23 +802,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>250216_08-50-43_resnet50_GENIE</t>
+          <t>250218_02-11-28_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>63.13</v>
+        <v>69.066</v>
       </c>
       <c r="E12" t="n">
-        <v>49.813</v>
+        <v>61.462</v>
       </c>
       <c r="F12" t="n">
-        <v>52.704</v>
+        <v>65.121</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -834,406 +834,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>250216_21-54-51_resnet50_GENIE</t>
+          <t>250126_23-00-34_resnet50_sgd</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>72.67400000000001</v>
+        <v>54.823</v>
       </c>
       <c r="E13" t="n">
-        <v>67.706</v>
+        <v>52.35</v>
       </c>
       <c r="F13" t="n">
-        <v>49.281</v>
+        <v>54.309</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>250217_08-35-32_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>67.855</v>
-      </c>
-      <c r="E14" t="n">
-        <v>67.855</v>
-      </c>
-      <c r="F14" t="n">
-        <v>67.855</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>250127_05-05-39_resnet50_adam</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>74.423</v>
-      </c>
-      <c r="E15" t="n">
-        <v>53.468</v>
-      </c>
-      <c r="F15" t="n">
-        <v>52.022</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>250217_02-53-21_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>72.629</v>
-      </c>
-      <c r="E16" t="n">
-        <v>69.286</v>
-      </c>
-      <c r="F16" t="n">
-        <v>43.085</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>250216_14-37-29_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>70.652</v>
-      </c>
-      <c r="E17" t="n">
-        <v>57.017</v>
-      </c>
-      <c r="F17" t="n">
-        <v>56.282</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>250131_04-34-02_resnet50_EVE</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>72.48999999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>70.443</v>
-      </c>
-      <c r="F18" t="n">
-        <v>64.569</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>250217_11-14-14_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>73.354</v>
-      </c>
-      <c r="E19" t="n">
-        <v>58.881</v>
-      </c>
-      <c r="F19" t="n">
-        <v>47.63</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>250217_07-05-12_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>71.038</v>
-      </c>
-      <c r="E20" t="n">
-        <v>65.35599999999999</v>
-      </c>
-      <c r="F20" t="n">
-        <v>64.43000000000001</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>250216_06-00-16_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>71.762</v>
-      </c>
-      <c r="E21" t="n">
-        <v>52.783</v>
-      </c>
-      <c r="F21" t="n">
-        <v>50.969</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>250217_15-40-11_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>72.26300000000001</v>
-      </c>
-      <c r="E22" t="n">
-        <v>72.26300000000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>49.441</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>250126_23-00-34_resnet50_sgd</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>54.823</v>
-      </c>
-      <c r="E23" t="n">
-        <v>52.35</v>
-      </c>
-      <c r="F23" t="n">
-        <v>54.309</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>250216_11-05-38_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>68.041</v>
-      </c>
-      <c r="E24" t="n">
-        <v>52.099</v>
-      </c>
-      <c r="F24" t="n">
-        <v>52.879</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0_2_3</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>250215_23-40-10_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>74.408</v>
-      </c>
-      <c r="E25" t="n">
-        <v>54.623</v>
-      </c>
-      <c r="F25" t="n">
-        <v>53.768</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
         <v>0</v>
       </c>
     </row>
